--- a/Total-Expand_Jobs and EC-UNC-Feb22.xlsx
+++ b/Total-Expand_Jobs and EC-UNC-Feb22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/WindWorkforceTeam/Shared Documents/Offshore Workforce/Supply Chain/February 2022 Scenario Updates (Most Current)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Reports\Plots\supply-chain-projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{BF7CA52F-941B-42FB-97FF-28C21336C513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8468DFE9-FD32-48A1-8B30-9D4DC6C2091C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DFCCBD-1FEA-42CE-9331-D12AF02F0841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C3CA28CF-94FD-47D1-8867-9A9CD65560ED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C3CA28CF-94FD-47D1-8867-9A9CD65560ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Total-Expand Scenario" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Breakdowns" sheetId="27" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24094,12 +24095,12 @@
       <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
@@ -24107,7 +24108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="36"/>
       <c r="C4">
         <v>2021</v>
@@ -24155,7 +24156,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="36"/>
       <c r="B5" s="1">
         <v>0.25</v>
@@ -24210,7 +24211,7 @@
         <v>9354.8664178522013</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="B6" s="1">
         <v>0.5</v>
@@ -24235,7 +24236,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
       <c r="B7" s="1">
         <v>0.75</v>
@@ -24260,7 +24261,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
       <c r="B8" s="1">
         <v>1</v>
@@ -24315,10 +24316,10 @@
         <v>37419.465671408805</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="36" t="s">
         <v>0</v>
       </c>
@@ -24326,7 +24327,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="36"/>
       <c r="C36">
         <v>2021</v>
@@ -24377,7 +24378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="36"/>
       <c r="B37" s="1">
         <v>0.25</v>
@@ -24436,7 +24437,7 @@
         <v>-21.362190458543086</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="36"/>
       <c r="B38" s="1">
         <v>0.5</v>
@@ -24465,7 +24466,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="36"/>
       <c r="B39" s="1">
         <v>0.75</v>
@@ -24494,7 +24495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="36"/>
       <c r="B40" s="1">
         <v>1</v>
@@ -24553,23 +24554,23 @@
         <v>-21.362190458543086</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="36"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="36"/>
       <c r="C65" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="36"/>
       <c r="C66">
         <v>2021</v>
@@ -24623,7 +24624,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="36"/>
       <c r="B67" s="1">
         <v>0.25</v>
@@ -24678,7 +24679,7 @@
         <v>1805.6386219461679</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="36"/>
       <c r="B68" s="1">
         <v>0.5</v>
@@ -24703,7 +24704,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="36"/>
       <c r="B69" s="1">
         <v>0.75</v>
@@ -24728,7 +24729,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="36"/>
       <c r="B70" s="1">
         <v>1</v>
@@ -24783,12 +24784,12 @@
         <v>7222.5544877846714</v>
       </c>
     </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C97" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C98">
         <v>2021</v>
       </c>
@@ -24841,7 +24842,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B99" s="1">
         <v>0.25</v>
       </c>
@@ -24899,7 +24900,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B100" s="1">
         <v>0.5</v>
       </c>
@@ -24927,7 +24928,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B101" s="1">
         <v>0.75</v>
       </c>
@@ -24955,7 +24956,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B102" s="1">
         <v>1</v>
       </c>
@@ -25013,20 +25014,20 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B103" s="6"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127" s="34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C129" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C130">
         <v>2021</v>
       </c>
@@ -25073,7 +25074,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B131" s="1">
         <v>0.25</v>
       </c>
@@ -25138,7 +25139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B132" s="1">
         <v>0.5</v>
       </c>
@@ -25158,7 +25159,7 @@
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B133" s="1">
         <v>0.75</v>
       </c>
@@ -25178,7 +25179,7 @@
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B134" s="1">
         <v>1</v>
       </c>
@@ -25243,7 +25244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B135" s="7"/>
     </row>
   </sheetData>
@@ -25266,9 +25267,9 @@
       <selection activeCell="W79" sqref="W79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -25281,7 +25282,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -25328,12 +25329,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -25398,7 +25399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
@@ -25463,16 +25464,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -25490,7 +25491,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -25508,13 +25509,13 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -25531,7 +25532,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -25549,7 +25550,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -25567,16 +25568,16 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -25594,7 +25595,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -25612,10 +25613,10 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -25662,12 +25663,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="37">
         <v>0.25</v>
       </c>
@@ -25722,7 +25723,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="11" t="s">
         <v>3</v>
@@ -25775,7 +25776,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="12" t="s">
         <v>4</v>
@@ -25828,7 +25829,7 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>1</v>
       </c>
@@ -25883,7 +25884,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="40"/>
       <c r="B29" s="11" t="s">
         <v>3</v>
@@ -25934,7 +25935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
       <c r="B30" s="12" t="s">
         <v>4</v>
@@ -25985,16 +25986,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="37">
         <v>0.25</v>
       </c>
@@ -26048,7 +26049,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="38"/>
       <c r="B34" s="11" t="s">
         <v>3</v>
@@ -26100,7 +26101,7 @@
       </c>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="12" t="s">
         <v>4</v>
@@ -26152,7 +26153,7 @@
       </c>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="39">
         <v>1</v>
       </c>
@@ -26205,7 +26206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
@@ -26256,7 +26257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="12" t="s">
         <v>4</v>
@@ -26307,13 +26308,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="37">
         <v>0.25</v>
       </c>
@@ -26334,7 +26335,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -26353,7 +26354,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="12"/>
       <c r="C43" s="8"/>
@@ -26372,7 +26373,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="39">
         <v>1</v>
       </c>
@@ -26393,7 +26394,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -26412,7 +26413,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
@@ -26431,13 +26432,13 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="37">
         <v>0.25</v>
       </c>
@@ -26458,7 +26459,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -26477,7 +26478,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="12"/>
       <c r="C51" s="8"/>
@@ -26496,7 +26497,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="39">
         <v>1</v>
       </c>
@@ -26518,7 +26519,7 @@
       <c r="Q52" s="18"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="40"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -26537,7 +26538,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="40"/>
       <c r="B54" s="12"/>
       <c r="C54" s="8"/>
@@ -26556,17 +26557,17 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -26583,7 +26584,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -26600,7 +26601,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -26617,7 +26618,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="H67" s="8"/>
@@ -26632,7 +26633,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -26649,7 +26650,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -26666,107 +26667,107 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
     </row>
@@ -26795,9 +26796,9 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
@@ -26810,7 +26811,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -26857,12 +26858,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -26927,7 +26928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
@@ -26992,16 +26993,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -27019,7 +27020,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -27037,13 +27038,13 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -27060,7 +27061,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -27078,7 +27079,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -27096,16 +27097,16 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -27123,7 +27124,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -27141,10 +27142,10 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -27191,12 +27192,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="37">
         <v>0.25</v>
       </c>
@@ -27251,7 +27252,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="11" t="s">
         <v>3</v>
@@ -27304,7 +27305,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="12" t="s">
         <v>4</v>
@@ -27357,7 +27358,7 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>1</v>
       </c>
@@ -27412,7 +27413,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="40"/>
       <c r="B29" s="11" t="s">
         <v>3</v>
@@ -27463,7 +27464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
       <c r="B30" s="12" t="s">
         <v>4</v>
@@ -27514,16 +27515,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="37">
         <v>0.25</v>
       </c>
@@ -27577,7 +27578,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="38"/>
       <c r="B34" s="11" t="s">
         <v>3</v>
@@ -27629,7 +27630,7 @@
       </c>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="12" t="s">
         <v>4</v>
@@ -27681,7 +27682,7 @@
       </c>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="39">
         <v>1</v>
       </c>
@@ -27734,7 +27735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
@@ -27785,7 +27786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="12" t="s">
         <v>4</v>
@@ -27836,13 +27837,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="37">
         <v>0.25</v>
       </c>
@@ -27863,7 +27864,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -27882,7 +27883,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="12"/>
       <c r="C43" s="8"/>
@@ -27901,7 +27902,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="39">
         <v>1</v>
       </c>
@@ -27922,7 +27923,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -27941,7 +27942,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
@@ -27960,13 +27961,13 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="37">
         <v>0.25</v>
       </c>
@@ -27987,7 +27988,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -28006,7 +28007,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="12"/>
       <c r="C51" s="8"/>
@@ -28025,7 +28026,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="39">
         <v>1</v>
       </c>
@@ -28047,7 +28048,7 @@
       <c r="Q52" s="18"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="40"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -28066,7 +28067,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="40"/>
       <c r="B54" s="12"/>
       <c r="C54" s="8"/>
@@ -28085,17 +28086,17 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -28112,7 +28113,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -28129,7 +28130,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -28146,7 +28147,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="H67" s="8"/>
@@ -28161,7 +28162,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -28178,7 +28179,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -28195,107 +28196,107 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
     </row>
@@ -28324,9 +28325,9 @@
       <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -28339,7 +28340,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -28386,12 +28387,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -28456,7 +28457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
@@ -28521,16 +28522,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -28548,7 +28549,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -28566,13 +28567,13 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -28589,7 +28590,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -28607,7 +28608,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -28625,16 +28626,16 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -28652,7 +28653,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -28670,10 +28671,10 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -28720,12 +28721,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="37">
         <v>0.25</v>
       </c>
@@ -28780,7 +28781,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="11" t="s">
         <v>3</v>
@@ -28833,7 +28834,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="12" t="s">
         <v>4</v>
@@ -28886,7 +28887,7 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>1</v>
       </c>
@@ -28941,7 +28942,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="40"/>
       <c r="B29" s="11" t="s">
         <v>3</v>
@@ -28992,7 +28993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
       <c r="B30" s="12" t="s">
         <v>4</v>
@@ -29043,16 +29044,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="37">
         <v>0.25</v>
       </c>
@@ -29106,7 +29107,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="38"/>
       <c r="B34" s="11" t="s">
         <v>3</v>
@@ -29158,7 +29159,7 @@
       </c>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="12" t="s">
         <v>4</v>
@@ -29210,7 +29211,7 @@
       </c>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="39">
         <v>1</v>
       </c>
@@ -29263,7 +29264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
@@ -29314,7 +29315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="12" t="s">
         <v>4</v>
@@ -29365,13 +29366,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="37">
         <v>0.25</v>
       </c>
@@ -29392,7 +29393,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -29411,7 +29412,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="12"/>
       <c r="C43" s="8"/>
@@ -29430,7 +29431,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="39">
         <v>1</v>
       </c>
@@ -29451,7 +29452,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -29470,7 +29471,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
@@ -29489,13 +29490,13 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="37">
         <v>0.25</v>
       </c>
@@ -29516,7 +29517,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -29535,7 +29536,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="12"/>
       <c r="C51" s="8"/>
@@ -29554,7 +29555,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="39">
         <v>1</v>
       </c>
@@ -29576,7 +29577,7 @@
       <c r="Q52" s="18"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="40"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -29595,7 +29596,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="40"/>
       <c r="B54" s="12"/>
       <c r="C54" s="8"/>
@@ -29614,17 +29615,17 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -29641,7 +29642,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -29658,7 +29659,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -29675,7 +29676,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="H67" s="8"/>
@@ -29690,7 +29691,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -29707,7 +29708,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -29724,107 +29725,107 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
     </row>
@@ -29853,9 +29854,9 @@
       <selection activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -29868,7 +29869,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -29915,12 +29916,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -29985,7 +29986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
@@ -30050,16 +30051,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -30077,7 +30078,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -30095,13 +30096,13 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -30118,7 +30119,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -30136,7 +30137,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -30154,16 +30155,16 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -30181,7 +30182,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -30199,10 +30200,10 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -30249,12 +30250,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="37">
         <v>0.25</v>
       </c>
@@ -30309,7 +30310,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="11" t="s">
         <v>3</v>
@@ -30362,7 +30363,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="12" t="s">
         <v>4</v>
@@ -30415,7 +30416,7 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>1</v>
       </c>
@@ -30470,7 +30471,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="40"/>
       <c r="B29" s="11" t="s">
         <v>3</v>
@@ -30521,7 +30522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
       <c r="B30" s="12" t="s">
         <v>4</v>
@@ -30572,16 +30573,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="37">
         <v>0.25</v>
       </c>
@@ -30635,7 +30636,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="38"/>
       <c r="B34" s="11" t="s">
         <v>3</v>
@@ -30687,7 +30688,7 @@
       </c>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="12" t="s">
         <v>4</v>
@@ -30739,7 +30740,7 @@
       </c>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="39">
         <v>1</v>
       </c>
@@ -30792,7 +30793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
@@ -30843,7 +30844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="12" t="s">
         <v>4</v>
@@ -30894,13 +30895,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="37">
         <v>0.25</v>
       </c>
@@ -30921,7 +30922,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -30940,7 +30941,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="12"/>
       <c r="C43" s="8"/>
@@ -30959,7 +30960,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="39">
         <v>1</v>
       </c>
@@ -30980,7 +30981,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -30999,7 +31000,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
@@ -31018,13 +31019,13 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="37">
         <v>0.25</v>
       </c>
@@ -31045,7 +31046,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -31064,7 +31065,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="12"/>
       <c r="C51" s="8"/>
@@ -31083,7 +31084,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="39">
         <v>1</v>
       </c>
@@ -31105,7 +31106,7 @@
       <c r="Q52" s="18"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="40"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -31124,7 +31125,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="40"/>
       <c r="B54" s="12"/>
       <c r="C54" s="8"/>
@@ -31143,17 +31144,17 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -31170,7 +31171,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -31187,7 +31188,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -31204,7 +31205,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="H67" s="8"/>
@@ -31219,7 +31220,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -31236,7 +31237,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -31253,107 +31254,107 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
     </row>
@@ -31381,13 +31382,13 @@
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="16.140625" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="4" width="16.1796875" customWidth="1"/>
+    <col min="6" max="7" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>16</v>
       </c>
@@ -31398,7 +31399,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -31421,7 +31422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -31447,7 +31448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -31473,7 +31474,7 @@
         <v>1.8604982466638463E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -31499,7 +31500,7 @@
         <v>3.7209964933276926E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -31525,7 +31526,7 @@
         <v>3.7209964933276926E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -31551,7 +31552,7 @@
         <v>3.2811770520892951E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -31577,7 +31578,7 @@
         <v>3.7200572275496592E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -31603,7 +31604,7 @@
         <v>0.11484119684635267</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -31629,7 +31630,7 @@
         <v>0.15127325052081525</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -31655,7 +31656,7 @@
         <v>0.10589127538779801</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -31681,7 +31682,7 @@
         <v>0.10892801892893983</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
         <v>2</v>
       </c>
@@ -31699,7 +31700,7 @@
         <v>1291.58117795</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>33</v>
       </c>
@@ -31710,7 +31711,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -31733,7 +31734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -31759,7 +31760,7 @@
         <v>0.16127374024156241</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -31785,7 +31786,7 @@
         <v>0.2520056549673183</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -31811,7 +31812,7 @@
         <v>7.0057862801751553E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -31837,7 +31838,7 @@
         <v>3.7443338923634846E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="24" t="s">
         <v>38</v>
       </c>
@@ -31863,7 +31864,7 @@
         <v>2.6803997488620491E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>39</v>
       </c>
@@ -31886,7 +31887,7 @@
         <v>4.9987278053602507E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="36" t="s">
         <v>2</v>
       </c>
@@ -31904,7 +31905,7 @@
         <v>713.560135876</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>6</v>
       </c>
@@ -31915,7 +31916,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -31938,7 +31939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -31964,7 +31965,7 @@
         <v>0.22159590179383795</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -31990,7 +31991,7 @@
         <v>9.3275614660299294E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -32016,7 +32017,7 @@
         <v>4.6637508643696236E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="25" t="s">
         <v>42</v>
       </c>
@@ -32042,7 +32043,7 @@
         <v>6.4377590158630787E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="25" t="s">
         <v>43</v>
       </c>
@@ -32068,7 +32069,7 @@
         <v>5.8264801056652337E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="25" t="s">
         <v>44</v>
       </c>
@@ -32094,7 +32095,7 @@
         <v>5.1897019567597506E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
         <v>45</v>
       </c>
@@ -32120,7 +32121,7 @@
         <v>8.9904736375849698E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="25" t="s">
         <v>47</v>
       </c>
@@ -32146,7 +32147,7 @@
         <v>2.5560998745069074E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="36" t="s">
         <v>2</v>
       </c>
@@ -32164,7 +32165,7 @@
         <v>520.36173127099994</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="27" t="s">
         <v>1</v>
       </c>
@@ -32175,7 +32176,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -32198,7 +32199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -32224,7 +32225,7 @@
         <v>0.65661990150712646</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="27" t="s">
         <v>9</v>
       </c>
@@ -32235,7 +32236,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -32258,7 +32259,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -32284,7 +32285,7 @@
         <v>0.65661990150712646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="27" t="s">
         <v>10</v>
       </c>
@@ -32295,7 +32296,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -32318,7 +32319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -32344,7 +32345,7 @@
         <v>0.65661990150712646</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="27" t="s">
         <v>11</v>
       </c>
@@ -32355,7 +32356,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -32378,7 +32379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -32404,7 +32405,7 @@
         <v>0.60079270728512546</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -32430,7 +32431,7 @@
         <v>1.3754980263946934E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="36" t="s">
         <v>2</v>
       </c>
@@ -32448,7 +32449,7 @@
         <v>2004.9440137900001</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="27" t="s">
         <v>12</v>
       </c>
@@ -32459,7 +32460,7 @@
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -32482,7 +32483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>50</v>
       </c>
@@ -32508,14 +32509,14 @@
         <v>0.65661990150712635</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="27" t="s">
         <v>13</v>
       </c>
@@ -32526,7 +32527,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -32549,7 +32550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -32575,7 +32576,7 @@
         <v>0.28662575735022</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="27" t="s">
         <v>14</v>
       </c>
@@ -32586,7 +32587,7 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -32609,7 +32610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -32635,7 +32636,7 @@
         <v>0.61617965155937326</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="27" t="s">
         <v>15</v>
       </c>
@@ -32646,7 +32647,7 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -32669,7 +32670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -32695,7 +32696,7 @@
         <v>0.61617965155937326</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="28" t="s">
         <v>51</v>
       </c>
@@ -32720,12 +32721,12 @@
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="16384" width="9.1796875" style="29"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C6" s="29">
         <v>2021</v>
       </c>
@@ -32778,12 +32779,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="s">
         <v>58</v>
       </c>
@@ -32850,7 +32851,7 @@
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" s="29" t="s">
         <v>59</v>
       </c>
@@ -32917,14 +32918,14 @@
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10" s="29" t="s">
         <v>61</v>
       </c>
       <c r="R10" s="30"/>
       <c r="S10" s="30"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="29" t="s">
         <v>58</v>
       </c>
@@ -32991,7 +32992,7 @@
       <c r="R11" s="30"/>
       <c r="S11" s="30"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="29" t="s">
         <v>59</v>
       </c>
@@ -33058,14 +33059,14 @@
       <c r="R12" s="30"/>
       <c r="S12" s="30"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13" s="29" t="s">
         <v>7</v>
       </c>
       <c r="R13" s="30"/>
       <c r="S13" s="30"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="29" t="s">
         <v>58</v>
       </c>
@@ -33132,7 +33133,7 @@
       <c r="R14" s="30"/>
       <c r="S14" s="30"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="29" t="s">
         <v>59</v>
       </c>
@@ -33199,14 +33200,14 @@
       <c r="R15" s="30"/>
       <c r="S15" s="30"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="29" t="s">
         <v>1</v>
       </c>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" s="29" t="s">
         <v>58</v>
       </c>
@@ -33273,7 +33274,7 @@
       <c r="R17" s="30"/>
       <c r="S17" s="30"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" s="29" t="s">
         <v>59</v>
       </c>
@@ -33340,14 +33341,14 @@
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="29" t="s">
         <v>62</v>
       </c>
       <c r="R19" s="30"/>
       <c r="S19" s="30"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" s="29" t="s">
         <v>58</v>
       </c>
@@ -33414,7 +33415,7 @@
       <c r="R20" s="30"/>
       <c r="S20" s="30"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="29" t="s">
         <v>59</v>
       </c>
@@ -33481,14 +33482,14 @@
       <c r="R21" s="30"/>
       <c r="S21" s="30"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="29" t="s">
         <v>10</v>
       </c>
       <c r="R22" s="30"/>
       <c r="S22" s="30"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="29" t="s">
         <v>58</v>
       </c>
@@ -33555,7 +33556,7 @@
       <c r="R23" s="30"/>
       <c r="S23" s="30"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" s="29" t="s">
         <v>59</v>
       </c>
@@ -33622,14 +33623,14 @@
       <c r="R24" s="30"/>
       <c r="S24" s="30"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" s="29" t="s">
         <v>11</v>
       </c>
       <c r="R25" s="30"/>
       <c r="S25" s="30"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" s="29" t="s">
         <v>58</v>
       </c>
@@ -33696,7 +33697,7 @@
       <c r="R26" s="30"/>
       <c r="S26" s="30"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27" s="29" t="s">
         <v>59</v>
       </c>
@@ -33763,14 +33764,14 @@
       <c r="R27" s="30"/>
       <c r="S27" s="30"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" s="29" t="s">
         <v>12</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29" s="29" t="s">
         <v>58</v>
       </c>
@@ -33837,7 +33838,7 @@
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30" s="29" t="s">
         <v>59</v>
       </c>
@@ -33904,14 +33905,14 @@
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31" s="29" t="s">
         <v>63</v>
       </c>
       <c r="R31" s="30"/>
       <c r="S31" s="30"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32" s="29" t="s">
         <v>58</v>
       </c>
@@ -33978,7 +33979,7 @@
       <c r="R32" s="30"/>
       <c r="S32" s="30"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B33" s="29" t="s">
         <v>59</v>
       </c>
@@ -34045,14 +34046,14 @@
       <c r="R33" s="30"/>
       <c r="S33" s="30"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34" s="29" t="s">
         <v>14</v>
       </c>
       <c r="R34" s="30"/>
       <c r="S34" s="30"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35" s="29" t="s">
         <v>58</v>
       </c>
@@ -34119,7 +34120,7 @@
       <c r="R35" s="30"/>
       <c r="S35" s="30"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B36" s="29" t="s">
         <v>59</v>
       </c>
@@ -34186,14 +34187,14 @@
       <c r="R36" s="30"/>
       <c r="S36" s="30"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B37" s="29" t="s">
         <v>15</v>
       </c>
       <c r="R37" s="30"/>
       <c r="S37" s="30"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B38" s="29" t="s">
         <v>58</v>
       </c>
@@ -34260,7 +34261,7 @@
       <c r="R38" s="30"/>
       <c r="S38" s="30"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B39" s="29" t="s">
         <v>59</v>
       </c>
@@ -34327,7 +34328,7 @@
       <c r="R39" s="30"/>
       <c r="S39" s="30"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B45" s="29" t="s">
         <v>58</v>
       </c>
@@ -34377,7 +34378,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B46" s="29" t="s">
         <v>60</v>
       </c>
@@ -34442,7 +34443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B47" s="29" t="s">
         <v>61</v>
       </c>
@@ -34507,7 +34508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B48" s="29" t="s">
         <v>7</v>
       </c>
@@ -34572,7 +34573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B49" s="29" t="s">
         <v>1</v>
       </c>
@@ -34637,7 +34638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B50" s="29" t="s">
         <v>9</v>
       </c>
@@ -34702,7 +34703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B51" s="29" t="s">
         <v>10</v>
       </c>
@@ -34767,7 +34768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B52" s="29" t="s">
         <v>11</v>
       </c>
@@ -34832,7 +34833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B53" s="29" t="s">
         <v>12</v>
       </c>
@@ -34897,7 +34898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B54" s="29" t="s">
         <v>66</v>
       </c>
@@ -34962,7 +34963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B55" s="29" t="s">
         <v>14</v>
       </c>
@@ -35027,7 +35028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B56" s="29" t="s">
         <v>15</v>
       </c>
@@ -35092,17 +35093,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B61" s="35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B91" s="29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B92" s="29" t="s">
         <v>60</v>
       </c>
@@ -35168,7 +35169,7 @@
       </c>
       <c r="R92" s="30"/>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B93" s="29" t="s">
         <v>61</v>
       </c>
@@ -35233,7 +35234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B94" s="29" t="s">
         <v>7</v>
       </c>
@@ -35298,7 +35299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B95" s="29" t="s">
         <v>1</v>
       </c>
@@ -35363,7 +35364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B96" s="29" t="s">
         <v>9</v>
       </c>
@@ -35428,7 +35429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B97" s="29" t="s">
         <v>10</v>
       </c>
@@ -35493,7 +35494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B98" s="29" t="s">
         <v>11</v>
       </c>
@@ -35558,7 +35559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B99" s="29" t="s">
         <v>12</v>
       </c>
@@ -35623,7 +35624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B100" s="29" t="s">
         <v>66</v>
       </c>
@@ -35688,7 +35689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B101" s="29" t="s">
         <v>14</v>
       </c>
@@ -35753,7 +35754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B102" s="29" t="s">
         <v>15</v>
       </c>
@@ -35818,12 +35819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B110" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="147" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="7:14" x14ac:dyDescent="0.35">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
       <c r="J147" s="31"/>
@@ -35832,64 +35833,64 @@
       <c r="M147" s="31"/>
       <c r="N147" s="31"/>
     </row>
-    <row r="148" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="7:14" x14ac:dyDescent="0.35">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
       <c r="L148" s="31"/>
       <c r="M148" s="31"/>
     </row>
-    <row r="149" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="7:14" x14ac:dyDescent="0.35">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
       <c r="L149" s="31"/>
       <c r="M149" s="31"/>
     </row>
-    <row r="150" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="7:14" x14ac:dyDescent="0.35">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="7:14" x14ac:dyDescent="0.35">
       <c r="G151" s="31"/>
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="7:14" x14ac:dyDescent="0.35">
       <c r="G152" s="31"/>
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="7:14" x14ac:dyDescent="0.35">
       <c r="G153" s="31"/>
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="7:14" x14ac:dyDescent="0.35">
       <c r="G154" s="31"/>
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="7:14" x14ac:dyDescent="0.35">
       <c r="G155" s="31"/>
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="7:14" x14ac:dyDescent="0.35">
       <c r="G156" s="31"/>
       <c r="H156" s="31"/>
     </row>
-    <row r="157" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="7:14" x14ac:dyDescent="0.35">
       <c r="G157" s="31"/>
       <c r="H157" s="31"/>
     </row>
-    <row r="158" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="7:14" x14ac:dyDescent="0.35">
       <c r="G158" s="31"/>
       <c r="H158" s="31"/>
     </row>
-    <row r="159" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="7:14" x14ac:dyDescent="0.35">
       <c r="G159" s="31"/>
       <c r="H159" s="31"/>
     </row>
-    <row r="160" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="7:14" x14ac:dyDescent="0.35">
       <c r="G160" s="31"/>
       <c r="H160" s="31"/>
     </row>
@@ -35908,9 +35909,9 @@
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
@@ -35923,7 +35924,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -35970,12 +35971,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -36040,7 +36041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
@@ -36105,16 +36106,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="20"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -36132,7 +36133,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -36150,13 +36151,13 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -36173,7 +36174,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="20"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -36191,7 +36192,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -36209,16 +36210,16 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="20"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -36236,7 +36237,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -36254,10 +36255,10 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -36304,12 +36305,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="37">
         <v>0.25</v>
       </c>
@@ -36370,7 +36371,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="11" t="s">
         <v>3</v>
@@ -36422,7 +36423,7 @@
       </c>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="12" t="s">
         <v>4</v>
@@ -36474,7 +36475,7 @@
       </c>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>1</v>
       </c>
@@ -36535,7 +36536,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="40"/>
       <c r="B29" s="11" t="s">
         <v>3</v>
@@ -36586,7 +36587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
       <c r="B30" s="12" t="s">
         <v>4</v>
@@ -36637,16 +36638,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="37">
         <v>0.25</v>
       </c>
@@ -36700,7 +36701,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="38"/>
       <c r="B34" s="11" t="s">
         <v>3</v>
@@ -36752,7 +36753,7 @@
       </c>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="12" t="s">
         <v>4</v>
@@ -36804,7 +36805,7 @@
       </c>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="39">
         <v>1</v>
       </c>
@@ -36857,7 +36858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
@@ -36908,7 +36909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="12" t="s">
         <v>4</v>
@@ -36959,13 +36960,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" s="37">
         <v>0.25</v>
       </c>
@@ -36986,7 +36987,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -37005,7 +37006,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="12"/>
       <c r="C43" s="8"/>
@@ -37027,7 +37028,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" s="39">
         <v>1</v>
       </c>
@@ -37048,7 +37049,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -37067,7 +37068,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
@@ -37086,13 +37087,13 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="37">
         <v>0.25</v>
       </c>
@@ -37113,7 +37114,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -37132,7 +37133,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="12"/>
       <c r="C51" s="8"/>
@@ -37151,7 +37152,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="39">
         <v>1</v>
       </c>
@@ -37173,7 +37174,7 @@
       <c r="Q52" s="18"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="40"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -37192,7 +37193,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="40"/>
       <c r="B54" s="12"/>
       <c r="C54" s="8"/>
@@ -37211,17 +37212,17 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -37238,7 +37239,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -37255,7 +37256,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -37272,7 +37273,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="H67" s="8"/>
@@ -37287,7 +37288,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -37304,7 +37305,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -37321,107 +37322,107 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
     </row>
@@ -37450,12 +37451,12 @@
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -37468,7 +37469,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -37515,12 +37516,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -37585,7 +37586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
@@ -37650,16 +37651,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -37677,7 +37678,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -37695,13 +37696,13 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -37718,7 +37719,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -37736,7 +37737,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -37754,16 +37755,16 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -37781,7 +37782,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -37799,10 +37800,10 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -37849,12 +37850,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="37">
         <v>0.25</v>
       </c>
@@ -37909,7 +37910,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="11" t="s">
         <v>3</v>
@@ -37960,7 +37961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="12" t="s">
         <v>4</v>
@@ -38011,7 +38012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>1</v>
       </c>
@@ -38066,7 +38067,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="40"/>
       <c r="B29" s="11" t="s">
         <v>3</v>
@@ -38117,7 +38118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
       <c r="B30" s="12" t="s">
         <v>4</v>
@@ -38168,16 +38169,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="37">
         <v>0.25</v>
       </c>
@@ -38231,7 +38232,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="38"/>
       <c r="B34" s="11" t="s">
         <v>3</v>
@@ -38283,7 +38284,7 @@
       </c>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="12" t="s">
         <v>4</v>
@@ -38335,7 +38336,7 @@
       </c>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="39">
         <v>1</v>
       </c>
@@ -38388,7 +38389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
@@ -38439,7 +38440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="12" t="s">
         <v>4</v>
@@ -38490,13 +38491,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="37">
         <v>0.25</v>
       </c>
@@ -38517,7 +38518,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -38536,7 +38537,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="12"/>
       <c r="C43" s="8"/>
@@ -38555,7 +38556,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="39">
         <v>1</v>
       </c>
@@ -38576,7 +38577,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -38595,7 +38596,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
@@ -38614,13 +38615,13 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="37">
         <v>0.25</v>
       </c>
@@ -38641,7 +38642,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -38660,7 +38661,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="12"/>
       <c r="C51" s="8"/>
@@ -38679,7 +38680,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="39">
         <v>1</v>
       </c>
@@ -38701,7 +38702,7 @@
       <c r="Q52" s="18"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="40"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -38720,7 +38721,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="40"/>
       <c r="B54" s="12"/>
       <c r="C54" s="8"/>
@@ -38739,17 +38740,17 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -38766,7 +38767,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -38783,7 +38784,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -38800,7 +38801,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="H67" s="8"/>
@@ -38815,7 +38816,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -38832,7 +38833,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -38849,111 +38850,111 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -38993,9 +38994,9 @@
       <selection activeCell="C36" sqref="C36:Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -39008,7 +39009,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -39055,12 +39056,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -39125,7 +39126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
@@ -39190,16 +39191,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -39217,7 +39218,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -39235,13 +39236,13 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -39258,7 +39259,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -39276,7 +39277,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -39294,16 +39295,16 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -39321,7 +39322,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -39339,10 +39340,10 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -39389,12 +39390,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="37">
         <v>0.25</v>
       </c>
@@ -39448,7 +39449,7 @@
       </c>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="11" t="s">
         <v>3</v>
@@ -39499,7 +39500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="12" t="s">
         <v>4</v>
@@ -39550,7 +39551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>1</v>
       </c>
@@ -39604,7 +39605,7 @@
       </c>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="40"/>
       <c r="B29" s="11" t="s">
         <v>3</v>
@@ -39655,7 +39656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
       <c r="B30" s="12" t="s">
         <v>4</v>
@@ -39706,16 +39707,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="37">
         <v>0.25</v>
       </c>
@@ -39769,7 +39770,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="38"/>
       <c r="B34" s="11" t="s">
         <v>3</v>
@@ -39821,7 +39822,7 @@
       </c>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="12" t="s">
         <v>4</v>
@@ -39873,7 +39874,7 @@
       </c>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="39">
         <v>1</v>
       </c>
@@ -39926,7 +39927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
@@ -39977,7 +39978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="12" t="s">
         <v>4</v>
@@ -40028,13 +40029,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="37">
         <v>0.25</v>
       </c>
@@ -40055,7 +40056,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -40074,7 +40075,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="12"/>
       <c r="C43" s="8"/>
@@ -40093,7 +40094,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="39">
         <v>1</v>
       </c>
@@ -40114,7 +40115,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -40133,7 +40134,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
@@ -40152,13 +40153,13 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="37">
         <v>0.25</v>
       </c>
@@ -40179,7 +40180,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -40198,7 +40199,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="12"/>
       <c r="C51" s="8"/>
@@ -40217,7 +40218,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="39">
         <v>1</v>
       </c>
@@ -40239,7 +40240,7 @@
       <c r="Q52" s="18"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="40"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -40258,7 +40259,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="40"/>
       <c r="B54" s="12"/>
       <c r="C54" s="8"/>
@@ -40277,17 +40278,17 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -40304,7 +40305,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -40321,7 +40322,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -40338,7 +40339,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="H67" s="8"/>
@@ -40353,7 +40354,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -40370,7 +40371,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -40387,107 +40388,107 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
     </row>
@@ -40516,9 +40517,9 @@
       <selection activeCell="P66" sqref="P66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -40531,7 +40532,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -40578,12 +40579,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -40648,7 +40649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
@@ -40713,16 +40714,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -40740,7 +40741,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -40758,13 +40759,13 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -40781,7 +40782,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -40799,7 +40800,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -40817,16 +40818,16 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -40844,7 +40845,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -40862,10 +40863,10 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -40912,12 +40913,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="37">
         <v>0.25</v>
       </c>
@@ -40972,7 +40973,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="11" t="s">
         <v>3</v>
@@ -41023,7 +41024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="12" t="s">
         <v>4</v>
@@ -41074,7 +41075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>1</v>
       </c>
@@ -41129,7 +41130,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="40"/>
       <c r="B29" s="11" t="s">
         <v>3</v>
@@ -41180,7 +41181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
       <c r="B30" s="12" t="s">
         <v>4</v>
@@ -41231,16 +41232,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="37">
         <v>0.25</v>
       </c>
@@ -41294,7 +41295,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="38"/>
       <c r="B34" s="11" t="s">
         <v>3</v>
@@ -41346,7 +41347,7 @@
       </c>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="12" t="s">
         <v>4</v>
@@ -41398,7 +41399,7 @@
       </c>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="39">
         <v>1</v>
       </c>
@@ -41451,7 +41452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
@@ -41502,7 +41503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="12" t="s">
         <v>4</v>
@@ -41553,13 +41554,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="37">
         <v>0.25</v>
       </c>
@@ -41580,7 +41581,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -41599,7 +41600,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="12"/>
       <c r="C43" s="8"/>
@@ -41618,7 +41619,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="39">
         <v>1</v>
       </c>
@@ -41639,7 +41640,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -41658,7 +41659,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
@@ -41677,13 +41678,13 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="37">
         <v>0.25</v>
       </c>
@@ -41704,7 +41705,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -41723,7 +41724,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="12"/>
       <c r="C51" s="8"/>
@@ -41742,7 +41743,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="39">
         <v>1</v>
       </c>
@@ -41764,7 +41765,7 @@
       <c r="Q52" s="18"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="40"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -41783,7 +41784,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="40"/>
       <c r="B54" s="12"/>
       <c r="C54" s="8"/>
@@ -41802,17 +41803,17 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -41829,7 +41830,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -41846,7 +41847,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -41863,7 +41864,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="H67" s="8"/>
@@ -41878,7 +41879,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -41895,7 +41896,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -41912,107 +41913,107 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
     </row>
@@ -42041,9 +42042,9 @@
       <selection activeCell="P79" sqref="P79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -42056,7 +42057,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -42103,12 +42104,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -42173,7 +42174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
@@ -42238,16 +42239,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -42265,7 +42266,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -42283,13 +42284,13 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -42306,7 +42307,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -42324,7 +42325,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -42342,16 +42343,16 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -42369,7 +42370,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -42387,10 +42388,10 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -42437,12 +42438,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="37">
         <v>0.25</v>
       </c>
@@ -42497,7 +42498,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="11" t="s">
         <v>3</v>
@@ -42550,7 +42551,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="12" t="s">
         <v>4</v>
@@ -42603,7 +42604,7 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>1</v>
       </c>
@@ -42658,7 +42659,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="40"/>
       <c r="B29" s="11" t="s">
         <v>3</v>
@@ -42709,7 +42710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
       <c r="B30" s="12" t="s">
         <v>4</v>
@@ -42760,16 +42761,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="37">
         <v>0.25</v>
       </c>
@@ -42823,7 +42824,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="38"/>
       <c r="B34" s="11" t="s">
         <v>3</v>
@@ -42875,7 +42876,7 @@
       </c>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="12" t="s">
         <v>4</v>
@@ -42927,7 +42928,7 @@
       </c>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="39">
         <v>1</v>
       </c>
@@ -42980,7 +42981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
@@ -43031,7 +43032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="12" t="s">
         <v>4</v>
@@ -43082,13 +43083,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="37">
         <v>0.25</v>
       </c>
@@ -43109,7 +43110,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -43128,7 +43129,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="12"/>
       <c r="C43" s="8"/>
@@ -43147,7 +43148,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="39">
         <v>1</v>
       </c>
@@ -43168,7 +43169,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -43187,7 +43188,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
@@ -43206,13 +43207,13 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="37">
         <v>0.25</v>
       </c>
@@ -43233,7 +43234,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -43252,7 +43253,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="12"/>
       <c r="C51" s="8"/>
@@ -43271,7 +43272,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="39">
         <v>1</v>
       </c>
@@ -43293,7 +43294,7 @@
       <c r="Q52" s="18"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="40"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -43312,7 +43313,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="40"/>
       <c r="B54" s="12"/>
       <c r="C54" s="8"/>
@@ -43331,17 +43332,17 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -43358,7 +43359,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -43375,7 +43376,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -43392,7 +43393,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="H67" s="8"/>
@@ -43407,7 +43408,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -43424,7 +43425,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -43441,107 +43442,107 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
     </row>
@@ -43570,9 +43571,9 @@
       <selection activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -43585,7 +43586,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -43632,12 +43633,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -43702,7 +43703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
@@ -43767,16 +43768,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -43794,7 +43795,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -43812,13 +43813,13 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -43835,7 +43836,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -43853,7 +43854,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -43871,16 +43872,16 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -43898,7 +43899,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -43916,10 +43917,10 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -43966,12 +43967,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="37">
         <v>0.25</v>
       </c>
@@ -44026,7 +44027,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="11" t="s">
         <v>3</v>
@@ -44079,7 +44080,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="12" t="s">
         <v>4</v>
@@ -44132,7 +44133,7 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>1</v>
       </c>
@@ -44187,7 +44188,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="40"/>
       <c r="B29" s="11" t="s">
         <v>3</v>
@@ -44240,7 +44241,7 @@
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
       <c r="B30" s="12" t="s">
         <v>4</v>
@@ -44293,16 +44294,16 @@
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="37">
         <v>0.25</v>
       </c>
@@ -44356,7 +44357,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="38"/>
       <c r="B34" s="11" t="s">
         <v>3</v>
@@ -44408,7 +44409,7 @@
       </c>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="12" t="s">
         <v>4</v>
@@ -44460,7 +44461,7 @@
       </c>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="39">
         <v>1</v>
       </c>
@@ -44513,7 +44514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
@@ -44564,7 +44565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="12" t="s">
         <v>4</v>
@@ -44615,13 +44616,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="37">
         <v>0.25</v>
       </c>
@@ -44642,7 +44643,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -44661,7 +44662,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="12"/>
       <c r="C43" s="8"/>
@@ -44680,7 +44681,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="39">
         <v>1</v>
       </c>
@@ -44701,7 +44702,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -44720,7 +44721,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
@@ -44739,13 +44740,13 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="37">
         <v>0.25</v>
       </c>
@@ -44766,7 +44767,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -44785,7 +44786,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="12"/>
       <c r="C51" s="8"/>
@@ -44804,7 +44805,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="39">
         <v>1</v>
       </c>
@@ -44826,7 +44827,7 @@
       <c r="Q52" s="18"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="40"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -44845,7 +44846,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="40"/>
       <c r="B54" s="12"/>
       <c r="C54" s="8"/>
@@ -44864,17 +44865,17 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -44891,7 +44892,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -44908,7 +44909,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -44925,7 +44926,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="H67" s="8"/>
@@ -44940,7 +44941,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -44957,7 +44958,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -44974,107 +44975,107 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
     </row>
@@ -45103,9 +45104,9 @@
       <selection activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -45118,7 +45119,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C3" s="6">
         <v>2021</v>
       </c>
@@ -45165,12 +45166,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
@@ -45235,7 +45236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
@@ -45300,16 +45301,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -45327,7 +45328,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -45345,13 +45346,13 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -45368,7 +45369,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -45386,7 +45387,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -45404,16 +45405,16 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -45431,7 +45432,7 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -45449,10 +45450,10 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>2021</v>
       </c>
@@ -45499,12 +45500,12 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="37">
         <v>0.25</v>
       </c>
@@ -45559,7 +45560,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="11" t="s">
         <v>3</v>
@@ -45612,7 +45613,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="12" t="s">
         <v>4</v>
@@ -45665,7 +45666,7 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="39">
         <v>1</v>
       </c>
@@ -45720,7 +45721,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="40"/>
       <c r="B29" s="11" t="s">
         <v>3</v>
@@ -45773,7 +45774,7 @@
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="40"/>
       <c r="B30" s="12" t="s">
         <v>4</v>
@@ -45826,16 +45827,16 @@
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="37">
         <v>0.25</v>
       </c>
@@ -45889,7 +45890,7 @@
       </c>
       <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="38"/>
       <c r="B34" s="11" t="s">
         <v>3</v>
@@ -45941,7 +45942,7 @@
       </c>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="12" t="s">
         <v>4</v>
@@ -45993,7 +45994,7 @@
       </c>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="39">
         <v>1</v>
       </c>
@@ -46046,7 +46047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>3</v>
@@ -46097,7 +46098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="12" t="s">
         <v>4</v>
@@ -46148,13 +46149,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="37">
         <v>0.25</v>
       </c>
@@ -46175,7 +46176,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -46194,7 +46195,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="12"/>
       <c r="C43" s="8"/>
@@ -46213,7 +46214,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" s="39">
         <v>1</v>
       </c>
@@ -46234,7 +46235,7 @@
       <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
@@ -46253,7 +46254,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
@@ -46272,13 +46273,13 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="37">
         <v>0.25</v>
       </c>
@@ -46299,7 +46300,7 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="11"/>
       <c r="C50" s="8"/>
@@ -46318,7 +46319,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="12"/>
       <c r="C51" s="8"/>
@@ -46337,7 +46338,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52" s="39">
         <v>1</v>
       </c>
@@ -46359,7 +46360,7 @@
       <c r="Q52" s="18"/>
       <c r="AV52" s="6"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53" s="40"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
@@ -46378,7 +46379,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54" s="40"/>
       <c r="B54" s="12"/>
       <c r="C54" s="8"/>
@@ -46397,17 +46398,17 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -46424,7 +46425,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -46441,7 +46442,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -46458,7 +46459,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
     </row>
-    <row r="67" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="H67" s="8"/>
@@ -46473,7 +46474,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -46490,7 +46491,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -46507,107 +46508,107 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="73" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:18" x14ac:dyDescent="0.35">
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
     </row>
@@ -46637,6 +46638,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD04C3C7A4624F4E9D53BDC0DE3E9B7E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb568f6d59f5eed75ca36ca525048d09">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c013a390-6a41-41d7-a4aa-97299633717e" xmlns:ns3="84929144-d36a-41e1-af84-f5eaab08fb1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fdeaaf7d595c97e8280597517dfb70b" ns2:_="" ns3:_="">
     <xsd:import namespace="c013a390-6a41-41d7-a4aa-97299633717e"/>
@@ -46847,12 +46854,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C129E600-FF0C-4B68-A7F5-B4CE586B6248}">
   <ds:schemaRefs>
@@ -46862,6 +46863,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E11852B4-F0CE-4859-A7D1-6F624C629417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c013a390-6a41-41d7-a4aa-97299633717e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84929144-d36a-41e1-af84-f5eaab08fb1e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB78706F-CD27-40DD-B7A3-0A2392D1E307}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46878,21 +46896,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E11852B4-F0CE-4859-A7D1-6F624C629417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c013a390-6a41-41d7-a4aa-97299633717e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84929144-d36a-41e1-af84-f5eaab08fb1e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>